--- a/study2/presentation_for_paper/study2a_linear_regression_assumption_test.xlsx
+++ b/study2/presentation_for_paper/study2a_linear_regression_assumption_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{04B51B2C-F939-4250-9555-F45FDE986B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4555D463-41AC-4EEB-B47B-E72FB138EB55}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{04B51B2C-F939-4250-9555-F45FDE986B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502744B8-A664-4445-9FEB-932CA9AD9CF1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{55AC8A10-C792-40F2-8B60-D94B7E634E3F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Shapiro-Wilk test</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Variance Inflation Factors (VIF)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -104,6 +100,14 @@
   </si>
   <si>
     <t>Linearlity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Visual Assessment though QQ-plot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Majority of residuals within the 95% CI</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -215,22 +219,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2538488E-EB6D-4201-A087-4883A336B532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF675655-18B2-4090-1F70-D0AFDC5E56BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -253,8 +257,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="222250" y="107950"/>
-          <a:ext cx="6515100" cy="1111250"/>
+          <a:off x="228600" y="133350"/>
+          <a:ext cx="7124700" cy="1111250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,13 +604,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="27.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -615,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -629,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -643,13 +649,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -663,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -674,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -688,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +711,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/study2/presentation_for_paper/study2a_linear_regression_assumption_test.xlsx
+++ b/study2/presentation_for_paper/study2a_linear_regression_assumption_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{04B51B2C-F939-4250-9555-F45FDE986B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502744B8-A664-4445-9FEB-932CA9AD9CF1}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{04B51B2C-F939-4250-9555-F45FDE986B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C671F482-4CE9-41A8-B1E7-DF62DA5E3C01}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{55AC8A10-C792-40F2-8B60-D94B7E634E3F}"/>
   </bookViews>
@@ -40,82 +40,82 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Id</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Homoscedasticity</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Normality of residuals</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No multicollinearity</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Durbin-Watson test</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Breusch-Pagan test</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Variance Inflation Factors (VIF)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Independence of errors</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1.5 &lt;= stats &lt;= 2.5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Assumptions</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Detection Methods</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>p-value &gt; 0.05</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>stats &lt; 10</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Passing Threshold</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Rainbow test</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Linearlity</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Visual Assessment though QQ-plot</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Majority of residuals within the 95% CI</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,34 +125,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,17 +162,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -181,21 +187,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -219,22 +231,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF675655-18B2-4090-1F70-D0AFDC5E56BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3567291A-DC7A-106B-BDFD-77B080341BB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -257,8 +269,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="228600" y="133350"/>
-          <a:ext cx="7124700" cy="1111250"/>
+          <a:off x="114300" y="120650"/>
+          <a:ext cx="7213600" cy="1250950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -601,107 +613,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB90C86-F1A2-43AE-9C7F-6EB40FA5D0CC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:5" ht="4" customHeight="1"/>
+    <row r="2" spans="2:5" ht="20" customHeight="1">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
+    <row r="3" spans="2:5">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
+    <row r="4" spans="2:5">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
+    <row r="6" spans="2:5">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
+    <row r="7" spans="2:5">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="2:5" ht="4" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -711,12 +727,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
